--- a/heart.xlsx
+++ b/heart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil\Downloads\GitHub\Heart-Disease-Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8BAE1B-7A4C-4F01-996D-5C19EC70E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525EA721-D21A-456E-9DAE-66F2957433FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,19 @@
     <sheet name="HW3" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Numerical Stats" sheetId="3" r:id="rId3"/>
     <sheet name="Categorical Stats" sheetId="4" r:id="rId4"/>
-    <sheet name="heart (edited)" sheetId="5" r:id="rId5"/>
+    <sheet name="Chest Pain Analysis" sheetId="6" r:id="rId5"/>
+    <sheet name="heart2" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">heart!$A$1:$L$919</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'heart (edited)'!$A$1:$L$747</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">heart2!$A$1:$L$747</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">heart!$A$2:$A$919</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">heart!$J$2:$J$919</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(heart!$D$2:$D$450,heart!$D$452:$D$919)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">heart!$H$2:$H$919</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">heart2!$E$2:$E$747</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">heart2!$E$2:$E$747</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">heart2!$E$2:$E$747</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8388" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8425" uniqueCount="55">
   <si>
     <t>Age</t>
   </si>
@@ -207,6 +215,27 @@
   </si>
   <si>
     <t>ST Slope</t>
+  </si>
+  <si>
+    <t>Cholesterol Adjusted</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>X^2</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>(Obs-Exp)^2/Exp</t>
+  </si>
+  <si>
+    <t>Observed</t>
   </si>
 </sst>
 </file>
@@ -530,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -645,6 +674,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -690,12 +734,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -752,6 +798,3451 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Age</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Age</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{27C23DD5-EDBB-447B-B30A-E94179CE80A2}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Resting HR</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Resting HR</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{CC2CC01C-44B1-4F3A-B8B7-C06D6484D7FB}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Max HR</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Max HR</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E9830645-92F5-409B-991E-588CE4203950}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Old Peak</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Old Peak</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{01091C09-08D7-484A-A49E-5DB2D12C1F32}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Cholesterol</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Cholesterol</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{1109DF3C-0F2B-4589-9EC2-5D580131B3E1}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D248E08-25C6-F2E3-0C82-2EE7AFEDBB40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7658100" y="72390"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCAA990-05BE-43C3-9B84-700FA9C914EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7650480" y="2880360"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF05E089-F013-4397-8F0A-9FB601CA1694}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7650480" y="5669280"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48EF00F-79A3-41F3-B3FD-4C5540F00E75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7642860" y="8465820"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877CFEF1-DB8B-40A2-9753-E1488E0742C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7665720" y="144780"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L919"/>
   <sheetViews>
-    <sheetView topLeftCell="A901" workbookViewId="0">
-      <selection activeCell="C919" sqref="C919"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36007,6 +39498,7 @@
   </sheetData>
   <autoFilter ref="A1:L919" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36102,10 +39594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3349D1A-2C05-4A37-A6FB-93D8B35B6D29}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36120,9 +39612,10 @@
     <col min="8" max="8" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -36154,7 +39647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -36198,7 +39691,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -36242,7 +39735,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -36286,13 +39779,13 @@
         <v>918</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <f ca="1">(B2*K2+B3*K3)/918</f>
         <v>53.510893246187365</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -36302,7 +39795,7 @@
       <c r="H6" s="2"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -36346,7 +39839,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -36390,7 +39883,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -36434,18 +39927,48 @@
         <v>918</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f ca="1">(B7*K7+B8*K8)/918</f>
         <v>132.39651416122004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -36484,8 +40007,46 @@
         <f>COUNTIF(heart!$L:$L, $A12)</f>
         <v>410</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f ca="1">AVERAGEIF(heart2!$L$1:$L$747, $A12, OFFSET(heart2!$A$1, 0,V12,747,1))</f>
+        <v>238.76923076923077</v>
+      </c>
+      <c r="P12" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">MEDIAN(IF(heart2!$L$1:$L$747=$A12,OFFSET(heart2!$A$1, 0,$I12,747,1)))</f>
+        <v>231.5</v>
+      </c>
+      <c r="Q12" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">MODE(IF(heart2!$L$1:$L$747=$A12,OFFSET(heart2!$A$1, 0,$I12,747,1)))</f>
+        <v>240</v>
+      </c>
+      <c r="R12" cm="1">
+        <f t="array" aca="1" ref="R12" ca="1">MIN(IF(heart2!$L$1:$L$747=$A12,OFFSET(heart2!$A$1, 0,$I12,747,1)))</f>
+        <v>85</v>
+      </c>
+      <c r="S12" cm="1">
+        <f t="array" aca="1" ref="S12" ca="1">MAX(IF(heart2!$L$1:$L$747=$A12,OFFSET(heart2!$A$1, 0,$I12,747,1)))</f>
+        <v>564</v>
+      </c>
+      <c r="T12" s="3" cm="1">
+        <f t="array" aca="1" ref="T12" ca="1">_xlfn.STDEV.S(IF(heart2!$L$1:$L$747=$A12,OFFSET(heart2!$A$1, 0,$I12,747,1)))</f>
+        <v>55.39461684353671</v>
+      </c>
+      <c r="U12" s="3" cm="1">
+        <f t="array" aca="1" ref="U12" ca="1">_xlfn.VAR.S(IF(heart2!$L$1:$L$747=$A12,OFFSET(heart2!$A$1, 0,$I12,747,1)))</f>
+        <v>3068.5635752422413</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <f>COUNTIF(heart2!$L:$L, $A12)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -36524,8 +40085,46 @@
         <f>COUNTIF(heart!$L:$L, $A13)</f>
         <v>508</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <f ca="1">AVERAGEIF(heart2!$L$1:$L$747, $A13, OFFSET(heart2!$A$1, 0,V13,747,1))</f>
+        <v>251.06179775280899</v>
+      </c>
+      <c r="P13" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">MEDIAN(IF(heart2!$L$1:$L$747=$A13,OFFSET(heart2!$A$1, 0,$I13,747,1)))</f>
+        <v>246</v>
+      </c>
+      <c r="Q13" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">MODE(IF(heart2!$L$1:$L$747=$A13,OFFSET(heart2!$A$1, 0,$I13,747,1)))</f>
+        <v>282</v>
+      </c>
+      <c r="R13" cm="1">
+        <f t="array" aca="1" ref="R13" ca="1">MIN(IF(heart2!$L$1:$L$747=$A13,OFFSET(heart2!$A$1, 0,$I13,747,1)))</f>
+        <v>100</v>
+      </c>
+      <c r="S13" cm="1">
+        <f t="array" aca="1" ref="S13" ca="1">MAX(IF(heart2!$L$1:$L$747=$A13,OFFSET(heart2!$A$1, 0,$I13,747,1)))</f>
+        <v>603</v>
+      </c>
+      <c r="T13" s="3" cm="1">
+        <f t="array" aca="1" ref="T13" ca="1">_xlfn.STDEV.S(IF(heart2!$L$1:$L$747=$A13,OFFSET(heart2!$A$1, 0,$I13,747,1)))</f>
+        <v>62.462713169356412</v>
+      </c>
+      <c r="U13" s="3" cm="1">
+        <f t="array" aca="1" ref="U13" ca="1">_xlfn.VAR.S(IF(heart2!$L$1:$L$747=$A13,OFFSET(heart2!$A$1, 0,$I13,747,1)))</f>
+        <v>3901.5905364772907</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <f>COUNTIF(heart2!$L:$L, $A13)</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -36564,12 +40163,56 @@
         <f>SUM(K11:K13)</f>
         <v>918</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="3">
+        <f ca="1">AVERAGE(OFFSET(heart2!$A$1, 0,V13,747,1))</f>
+        <v>244.63538873994639</v>
+      </c>
+      <c r="P14">
+        <f ca="1">MEDIAN(OFFSET(heart2!$A$1, 0,$I14,747,1))</f>
+        <v>237</v>
+      </c>
+      <c r="Q14">
+        <f ca="1">MODE(OFFSET(heart2!$A$1, 0,$I14,747,1))</f>
+        <v>254</v>
+      </c>
+      <c r="R14">
+        <f ca="1">MIN(OFFSET(heart2!$A$1, 0,$I14,747,1))</f>
+        <v>85</v>
+      </c>
+      <c r="S14">
+        <f ca="1">MAX(OFFSET(heart2!$A$1, 0,$I14,747,1))</f>
+        <v>603</v>
+      </c>
+      <c r="T14" s="3">
+        <f ca="1">_xlfn.STDEV.S(OFFSET(heart2!$A$1, 0,$I14,747,1))</f>
+        <v>59.153523677002781</v>
+      </c>
+      <c r="U14" s="3">
+        <f ca="1">_xlfn.VAR.S(OFFSET(heart2!$A$1, 0,$I14,747,1))</f>
+        <v>3499.1393634057285</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <f>SUM(X11:X13)</f>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f ca="1">(B12*K12+B13*K13)/918</f>
         <v>198.7995642701525</v>
       </c>
+      <c r="O15" s="3">
+        <f ca="1">(O12*X12+O13*X13)/(X14)</f>
+        <v>244.63538873994639</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
@@ -36841,10 +40484,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F0CBD-043F-467B-80A9-5B95F4C2D78E}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A6" sqref="A6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36858,11 +40501,15 @@
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1:C1" ca="1">TRANSPOSE(_xlfn.UNIQUE(OFFSET(heart!$A$1, 1,$I1,918,1)))</f>
@@ -36879,7 +40526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -36900,7 +40547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -36921,10 +40568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4">
         <f t="shared" ref="B4:C4" ca="1" si="0">SUM(B1:B3)</f>
         <v>725</v>
@@ -36938,9 +40582,37 @@
         <v>918</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="U5:V5" ca="1">TRANSPOSE(_xlfn.UNIQUE(OFFSET(heart!$A$1, 1,$I1,918,1)))</f>
+        <v>M</v>
+      </c>
+      <c r="V5" s="6" t="str">
+        <f ca="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" aca="1" ref="B6:E6" ca="1">TRANSPOSE(_xlfn.UNIQUE(OFFSET(heart!$A$1, 1,$I6,918,1)))</f>
@@ -36964,8 +40636,34 @@
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>149</v>
+      </c>
+      <c r="P6" s="6">
+        <v>131</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>104</v>
+      </c>
+      <c r="R6" s="6">
+        <v>26</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6" cm="1">
+        <f t="array" aca="1" ref="U6" ca="1">SUM(IF(IF(heart!$L$1:$L$919=$A2,OFFSET(heart!$A$1, 0,$I2,919,1))=U5,1,0))</f>
+        <v>267</v>
+      </c>
+      <c r="V6" s="6" cm="1">
+        <f t="array" aca="1" ref="V6" ca="1">SUM(IF(IF(heart!$L$1:$L$919=$A2,OFFSET(heart!$A$1, 0,$I2,919,1))=V5,1,0))</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -36993,8 +40691,37 @@
         <f>I6</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>24</v>
+      </c>
+      <c r="P7" s="6">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>392</v>
+      </c>
+      <c r="R7" s="6">
+        <v>20</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6" cm="1">
+        <f t="array" aca="1" ref="U7" ca="1">SUM(IF(IF(heart!$L$1:$L$919=$A3,OFFSET(heart!$A$1, 0,$I3,919,1))=U5,1,0))</f>
+        <v>458</v>
+      </c>
+      <c r="V7" s="6" cm="1">
+        <f t="array" aca="1" ref="V7" ca="1">SUM(IF(IF(heart!$L$1:$L$919=$A3,OFFSET(heart!$A$1, 0,$I3,919,1))=V5,1,0))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -37023,10 +40750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" ref="B9:E9" ca="1" si="1">SUM(B6:B8)</f>
         <v>173</v>
@@ -37047,10 +40771,54 @@
         <f>SUM(G6:G8)</f>
         <v>918</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>267</v>
+      </c>
+      <c r="P10" s="6">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>82</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>355</v>
+      </c>
+      <c r="V10" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" aca="1" ref="B11:C11" ca="1">TRANSPOSE(_xlfn.UNIQUE(OFFSET(heart!$A$1, 1,$I11,918,1)))</f>
@@ -37066,8 +40834,29 @@
       <c r="I11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>285</v>
+      </c>
+      <c r="P11" s="6">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>106</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>192</v>
+      </c>
+      <c r="V11" s="6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -37088,7 +40877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -37108,11 +40897,29 @@
         <f>I12</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="N13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" ref="B14:C14" ca="1" si="2">SUM(B11:B13)</f>
         <v>704</v>
@@ -37125,10 +40932,54 @@
         <f>SUM(G11:G13)</f>
         <v>918</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>317</v>
+      </c>
+      <c r="P14" s="6">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>14</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>366</v>
+      </c>
+      <c r="V14" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>78</v>
+      </c>
+      <c r="P15" s="6">
+        <v>381</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>49</v>
+      </c>
+      <c r="T15" s="6">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>338</v>
+      </c>
+      <c r="V15" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" aca="1" ref="B16:D16" ca="1">TRANSPOSE(_xlfn.UNIQUE(OFFSET(heart!$A$1, 1,$I16,918,1)))</f>
@@ -37200,9 +41051,6 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B19">
         <f t="shared" ref="B19:D19" ca="1" si="3">SUM(B16:B18)</f>
         <v>552</v>
@@ -37225,7 +41073,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" aca="1" ref="B21:C21" ca="1">TRANSPOSE(_xlfn.UNIQUE(OFFSET(heart!$A$1, 1,$I21,918,1)))</f>
@@ -37285,9 +41133,6 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B24">
         <f t="shared" ref="B24:C24" ca="1" si="4">SUM(B21:B23)</f>
         <v>547</v>
@@ -37303,7 +41148,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" aca="1" ref="B26:D26" ca="1">TRANSPOSE(_xlfn.UNIQUE(OFFSET(heart!$A$1, 1,$I26,918,1)))</f>
@@ -37375,9 +41220,6 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B29">
         <f ca="1">SUM(B26:B28)</f>
         <v>395</v>
@@ -37480,11 +41322,247 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F5D733-71A3-40AC-989D-524836B9297D}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>149</v>
+      </c>
+      <c r="C2">
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>392</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B3:E3)</f>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>173</v>
+      </c>
+      <c r="C4">
+        <v>203</v>
+      </c>
+      <c r="D4">
+        <v>496</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:E4)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>B$9*($F7/$F$9)</f>
+        <v>77.265795206971674</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:E8" si="0">C$9*($F7/$F$9)</f>
+        <v>90.664488017429193</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>221.52505446623093</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>20.544662309368192</v>
+      </c>
+      <c r="F7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>B$9*($F8/$F$9)</f>
+        <v>95.734204793028326</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>112.33551198257081</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>274.47494553376907</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>25.455337690631808</v>
+      </c>
+      <c r="F8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>203</v>
+      </c>
+      <c r="D9">
+        <v>496</v>
+      </c>
+      <c r="E9">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <f>SUM(B9:E9)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <f>((B2-B7)^2)/B7</f>
+        <v>66.598630396595254</v>
+      </c>
+      <c r="C11">
+        <f>((C2-C7)^2)/C7</f>
+        <v>17.944771569033183</v>
+      </c>
+      <c r="D11">
+        <f>((D2-D7)^2)/D7</f>
+        <v>62.350231492194737</v>
+      </c>
+      <c r="E11">
+        <f>((E2-E7)^2)/E7</f>
+        <v>1.4485859573003228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>((B3-B8)^2)/B8</f>
+        <v>53.750863115362314</v>
+      </c>
+      <c r="C12">
+        <f>((C3-C8)^2)/C8</f>
+        <v>14.482984927763003</v>
+      </c>
+      <c r="D12">
+        <f>((D3-D8)^2)/D8</f>
+        <v>50.322037227952436</v>
+      </c>
+      <c r="E12">
+        <f>((E3-E8)^2)/E8</f>
+        <v>1.1691343356164023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B11:E12)</f>
+        <v>268.06723902181761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <f>_xlfn.CHISQ.DIST.RT(B14, 3*1)</f>
+        <v>8.0837284280879686E-58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DE4CD-3EED-4D55-9E8C-C81BC0E23651}">
   <dimension ref="A1:L747"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65881,5 +69959,6 @@
   </sheetData>
   <autoFilter ref="A1:L747" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/heart.xlsx
+++ b/heart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil\Downloads\GitHub\Heart-Disease-Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525EA721-D21A-456E-9DAE-66F2957433FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA46A3-61DF-4590-9CBD-260B6D41D4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heart" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">heart!$A$1:$L$919</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">heart2!$A$1:$L$747</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">heart!$A$2:$A$919</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">heart!$J$2:$J$919</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(heart!$D$2:$D$450,heart!$D$452:$D$919)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">heart!$H$2:$H$919</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(heart!$D$2:$D$450,heart!$D$452:$D$919)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">heart!$H$2:$H$919</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">heart!$J$2:$J$919</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">heart2!$E$2:$E$747</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">heart2!$E$2:$E$747</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">heart2!$E$2:$E$747</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -866,7 +864,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -927,7 +925,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -988,7 +986,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1049,7 +1047,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -39596,8 +39594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3349D1A-2C05-4A37-A6FB-93D8B35B6D29}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41325,7 +41323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F5D733-71A3-40AC-989D-524836B9297D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -41500,37 +41498,37 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <f>((B2-B7)^2)/B7</f>
+        <f t="shared" ref="B11:E12" si="1">((B2-B7)^2)/B7</f>
         <v>66.598630396595254</v>
       </c>
       <c r="C11">
-        <f>((C2-C7)^2)/C7</f>
+        <f t="shared" si="1"/>
         <v>17.944771569033183</v>
       </c>
       <c r="D11">
-        <f>((D2-D7)^2)/D7</f>
+        <f t="shared" si="1"/>
         <v>62.350231492194737</v>
       </c>
       <c r="E11">
-        <f>((E2-E7)^2)/E7</f>
+        <f t="shared" si="1"/>
         <v>1.4485859573003228</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
-        <f>((B3-B8)^2)/B8</f>
+        <f t="shared" si="1"/>
         <v>53.750863115362314</v>
       </c>
       <c r="C12">
-        <f>((C3-C8)^2)/C8</f>
+        <f t="shared" si="1"/>
         <v>14.482984927763003</v>
       </c>
       <c r="D12">
-        <f>((D3-D8)^2)/D8</f>
+        <f t="shared" si="1"/>
         <v>50.322037227952436</v>
       </c>
       <c r="E12">
-        <f>((E3-E8)^2)/E8</f>
+        <f t="shared" si="1"/>
         <v>1.1691343356164023</v>
       </c>
     </row>

--- a/heart.xlsx
+++ b/heart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil\Downloads\GitHub\Heart-Disease-Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA46A3-61DF-4590-9CBD-260B6D41D4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7A152-D96D-46CB-B304-31F932F1498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">heart2!$A$1:$L$747</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">heart!$A$2:$A$919</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">(heart!$D$2:$D$450,heart!$D$452:$D$919)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">heart!$H$2:$H$919</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">heart!$J$2:$J$919</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">heart!$J$2:$J$919</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">heart!$H$2:$H$919</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">heart2!$E$2:$E$747</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -925,7 +925,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -986,7 +986,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -39595,7 +39595,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40485,7 +40485,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E9"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41560,7 +41560,7 @@
   <dimension ref="A1:L747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/heart.xlsx
+++ b/heart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil\Downloads\GitHub\Heart-Disease-Classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7A152-D96D-46CB-B304-31F932F1498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D455FC58-1627-4319-B157-FB761D2F6C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heart" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">heart!$A$1:$L$919</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">heart2!$A$1:$L$747</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">heart!$A$2:$A$919</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(heart!$D$2:$D$450,heart!$D$452:$D$919)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">heart!$J$2:$J$919</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">heart!$H$2:$H$919</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">heart!$J$2:$J$919</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">heart!$H$2:$H$919</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">heart!$A$2:$A$919</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(heart!$D$2:$D$450,heart!$D$452:$D$919)</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">heart2!$E$2:$E$747</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -803,7 +803,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -864,7 +864,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -925,7 +925,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -986,7 +986,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -39594,7 +39594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3349D1A-2C05-4A37-A6FB-93D8B35B6D29}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -41323,8 +41323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F5D733-71A3-40AC-989D-524836B9297D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
